--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,6 +626,142 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>config 백업</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>230106164006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>23-01-06 16:40:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>init까지 실행 백업</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>230106164044</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>23-01-06 16:40:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>실기백업</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>230118105439</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>23-01-18 10:54:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>실기백업 테스트2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>230119155526</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>23-01-19 15:55:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>백!업!</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>230120111203</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>23-01-20 11:12:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>230125131010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>23-01-25 13:10:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>230125141445</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>23-01-25 14:14:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>230125143521</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>23-01-25 14:35:21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,6 +762,142 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>config 백업</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>230127102210</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>23-01-27 10:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>230127102432</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>23-01-27 10:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>풀백업</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>230127102515</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23-01-27 10:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>230127102522</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>23-01-27 10:25:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>백업~~~~</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>230131162903</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>23-01-31 16:29:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>230131162911</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>23-01-31 16:29:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>백업 테스트</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>230131171806</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>23-01-31 17:18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>230131171814</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>23-01-31 17:18:14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,6 +898,57 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>230206162249</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>23-02-06 16:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>config 백업</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>230206162328</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>23-02-06 16:23:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>230206162332</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>23-02-06 16:23:32</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,6 +949,176 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>230206184238</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>23-02-06 18:42:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>230207105432</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>23-02-07 10:54:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>테스트백업</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>230207135321</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>23-02-07 13:53:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>230207135413</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>23-02-07 13:54:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>230207174600</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>23-02-07 17:46:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>230207174627</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>23-02-07 17:46:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>230207190621</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23-02-07 19:06:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>230207192902</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>23-02-07 19:29:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>230207193043</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>23-02-07 19:30:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>230207193200</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>23-02-07 19:32:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,6 +1119,74 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>config 백업</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>230220120248</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>23-02-20 12:02:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>230220120252</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>23-02-20 12:02:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>config 백업</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>230220120319</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>23-02-20 12:03:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>스위치 초기화로인한 자동 백업</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>230220120328</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>23-02-20 12:03:28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
